--- a/test_scripts/RC/SEAT/SeatControlData.xlsx
+++ b/test_scripts/RC/SEAT/SeatControlData.xlsx
@@ -136,7 +136,11 @@
   <si>
     <t>Massage Zone: 
 lumbar :поясничный
-SEAT CUSHION : подушки сиденья</t>
+SEAT CUSHION : подушки сиденья
+MassageMode
+OFF"
+"LOW"
+"HIGH"</t>
   </si>
   <si>
     <t>massage Cushion Firmness : MassageCushionFirmness</t>
@@ -505,7 +509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="37.5">
+    <row r="15" ht="82.5">
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
